--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnai2-Cxcr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H2">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I2">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J2">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.036557</v>
       </c>
       <c r="O2">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P2">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q2">
-        <v>1.302386867481444</v>
+        <v>2.576798945644444</v>
       </c>
       <c r="R2">
-        <v>11.721481807333</v>
+        <v>23.1911905108</v>
       </c>
       <c r="S2">
-        <v>0.0001996172340237322</v>
+        <v>0.0003627634541097629</v>
       </c>
       <c r="T2">
-        <v>0.0001996172340237323</v>
+        <v>0.0003627634541097629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H3">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I3">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J3">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N3">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q3">
-        <v>21.72182643287055</v>
+        <v>17.18878629231111</v>
       </c>
       <c r="R3">
-        <v>195.496437895835</v>
+        <v>154.6990766308</v>
       </c>
       <c r="S3">
-        <v>0.003329310989489835</v>
+        <v>0.002419848664519639</v>
       </c>
       <c r="T3">
-        <v>0.003329310989489836</v>
+        <v>0.002419848664519639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H4">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I4">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J4">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N4">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O4">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P4">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q4">
-        <v>955.7035392627982</v>
+        <v>1673.211058454</v>
       </c>
       <c r="R4">
-        <v>8601.331853365185</v>
+        <v>15058.899526086</v>
       </c>
       <c r="S4">
-        <v>0.1464809741388529</v>
+        <v>0.235555755735387</v>
       </c>
       <c r="T4">
-        <v>0.146480974138853</v>
+        <v>0.2355557557353869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>106.8785896666667</v>
+        <v>211.4614666666667</v>
       </c>
       <c r="H5">
-        <v>320.635769</v>
+        <v>634.3844</v>
       </c>
       <c r="I5">
-        <v>0.1508748302900445</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="J5">
-        <v>0.1508748302900446</v>
+        <v>0.2421062275331183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N5">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O5">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P5">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q5">
-        <v>5.643153908203444</v>
+        <v>26.7640434516</v>
       </c>
       <c r="R5">
-        <v>50.788385173831</v>
+        <v>240.8763910644</v>
       </c>
       <c r="S5">
-        <v>0.000864927927678014</v>
+        <v>0.00376785967910198</v>
       </c>
       <c r="T5">
-        <v>0.0008649279276780145</v>
+        <v>0.003767859679101979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>231.698769</v>
       </c>
       <c r="I6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J6">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.036557</v>
       </c>
       <c r="O6">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P6">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q6">
         <v>0.9411346553703333</v>
@@ -827,10 +827,10 @@
         <v>8.470211898333</v>
       </c>
       <c r="S6">
-        <v>0.0001442479968430586</v>
+        <v>0.0001324935571483473</v>
       </c>
       <c r="T6">
-        <v>0.0001442479968430586</v>
+        <v>0.0001324935571483473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>231.698769</v>
       </c>
       <c r="I7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J7">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N7">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q7">
-        <v>15.69669054898167</v>
+        <v>6.277929634670333</v>
       </c>
       <c r="R7">
-        <v>141.270214940835</v>
+        <v>56.501366712033</v>
       </c>
       <c r="S7">
-        <v>0.002405836567419796</v>
+        <v>0.0008838110721756309</v>
       </c>
       <c r="T7">
-        <v>0.002405836567419797</v>
+        <v>0.0008838110721756308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>231.698769</v>
       </c>
       <c r="I8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J8">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N8">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O8">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P8">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q8">
-        <v>690.613321984465</v>
+        <v>611.1136126944149</v>
       </c>
       <c r="R8">
-        <v>6215.519897860185</v>
+        <v>5500.022514249735</v>
       </c>
       <c r="S8">
-        <v>0.1058505153549885</v>
+        <v>0.08603297722130911</v>
       </c>
       <c r="T8">
-        <v>0.1058505153549886</v>
+        <v>0.08603297722130909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>231.698769</v>
       </c>
       <c r="I9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="J9">
-        <v>0.1090256166999485</v>
+        <v>0.08842543241393927</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N9">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O9">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P9">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q9">
-        <v>4.077872590092333</v>
+        <v>9.775139365340999</v>
       </c>
       <c r="R9">
-        <v>36.700853310831</v>
+        <v>87.97625428806899</v>
       </c>
       <c r="S9">
-        <v>0.0006250167806970933</v>
+        <v>0.001376150563306197</v>
       </c>
       <c r="T9">
-        <v>0.0006250167806970936</v>
+        <v>0.001376150563306197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H10">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I10">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J10">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.036557</v>
       </c>
       <c r="O10">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P10">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q10">
-        <v>1.665492283903</v>
+        <v>2.124092139437888</v>
       </c>
       <c r="R10">
-        <v>14.989430555127</v>
+        <v>19.116829254941</v>
       </c>
       <c r="S10">
-        <v>0.0002552705123965956</v>
+        <v>0.0002990310915224221</v>
       </c>
       <c r="T10">
-        <v>0.0002552705123965957</v>
+        <v>0.000299031091522422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H11">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I11">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J11">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N11">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O11">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P11">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q11">
-        <v>27.777870937985</v>
+        <v>14.16896180887122</v>
       </c>
       <c r="R11">
-        <v>250.000838441865</v>
+        <v>127.520656279841</v>
       </c>
       <c r="S11">
-        <v>0.004257522785400616</v>
+        <v>0.001994715783171028</v>
       </c>
       <c r="T11">
-        <v>0.004257522785400618</v>
+        <v>0.001994715783171028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H12">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I12">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J12">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N12">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O12">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P12">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q12">
-        <v>1222.153655018835</v>
+        <v>1379.251750661455</v>
       </c>
       <c r="R12">
-        <v>10999.38289516952</v>
+        <v>12413.26575595309</v>
       </c>
       <c r="S12">
-        <v>0.1873198649788523</v>
+        <v>0.1941719706159511</v>
       </c>
       <c r="T12">
-        <v>0.1873198649788523</v>
+        <v>0.194171970615951</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>136.676337</v>
+        <v>174.3107043333333</v>
       </c>
       <c r="H13">
-        <v>410.029011</v>
+        <v>522.932113</v>
       </c>
       <c r="I13">
-        <v>0.1929387280825172</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="J13">
-        <v>0.1929387280825173</v>
+        <v>0.199571617988009</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N13">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O13">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P13">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q13">
-        <v>7.216465034821002</v>
+        <v>22.061982915357</v>
       </c>
       <c r="R13">
-        <v>64.948185313389</v>
+        <v>198.557846238213</v>
       </c>
       <c r="S13">
-        <v>0.001106069805867778</v>
+        <v>0.003105900497364531</v>
       </c>
       <c r="T13">
-        <v>0.001106069805867778</v>
+        <v>0.003105900497364531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H14">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I14">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J14">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1311,22 +1311,22 @@
         <v>0.036557</v>
       </c>
       <c r="O14">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P14">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q14">
-        <v>0.5550652120112223</v>
+        <v>0.3477149316072222</v>
       </c>
       <c r="R14">
-        <v>4.995586908101</v>
+        <v>3.129434384465</v>
       </c>
       <c r="S14">
-        <v>8.5075015028939E-05</v>
+        <v>4.895153727402249E-05</v>
       </c>
       <c r="T14">
-        <v>8.507501502893903E-05</v>
+        <v>4.895153727402249E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H15">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I15">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J15">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N15">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O15">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P15">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q15">
-        <v>9.257641101332778</v>
+        <v>2.319466041440555</v>
       </c>
       <c r="R15">
-        <v>83.31876991199501</v>
+        <v>20.875194372965</v>
       </c>
       <c r="S15">
-        <v>0.00141892148667477</v>
+        <v>0.0003265359582304703</v>
       </c>
       <c r="T15">
-        <v>0.00141892148667477</v>
+        <v>0.0003265359582304702</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H16">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I16">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J16">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N16">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O16">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P16">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q16">
-        <v>407.3119906887717</v>
+        <v>225.7841923360749</v>
       </c>
       <c r="R16">
-        <v>3665.807916198945</v>
+        <v>2032.057731024675</v>
       </c>
       <c r="S16">
-        <v>0.06242883354868532</v>
+        <v>0.03178604742665837</v>
       </c>
       <c r="T16">
-        <v>0.06242883354868534</v>
+        <v>0.03178604742665837</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.55066433333334</v>
+        <v>28.53474833333333</v>
       </c>
       <c r="H17">
-        <v>136.651993</v>
+        <v>85.60424499999999</v>
       </c>
       <c r="I17">
-        <v>0.06430145431675577</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="J17">
-        <v>0.06430145431675578</v>
+        <v>0.03266997236655063</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N17">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O17">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P17">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q17">
-        <v>2.405059893245222</v>
+        <v>3.611557492304999</v>
       </c>
       <c r="R17">
-        <v>21.645539039207</v>
+        <v>32.50401743074499</v>
       </c>
       <c r="S17">
-        <v>0.0003686242663667399</v>
+        <v>0.0005084374443877674</v>
       </c>
       <c r="T17">
-        <v>0.0003686242663667401</v>
+        <v>0.0005084374443877673</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H18">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J18">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.036557</v>
       </c>
       <c r="O18">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P18">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q18">
-        <v>2.420051595780444</v>
+        <v>2.806712539523333</v>
       </c>
       <c r="R18">
-        <v>21.780464362024</v>
+        <v>25.26041285571</v>
       </c>
       <c r="S18">
-        <v>0.0003709220492053941</v>
+        <v>0.0003951308414075856</v>
       </c>
       <c r="T18">
-        <v>0.0003709220492053943</v>
+        <v>0.0003951308414075856</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H19">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J19">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N19">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O19">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P19">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q19">
-        <v>40.36276933887555</v>
+        <v>18.72244713052333</v>
       </c>
       <c r="R19">
-        <v>363.26492404988</v>
+        <v>168.50202417471</v>
       </c>
       <c r="S19">
-        <v>0.006186414017322727</v>
+        <v>0.002635758448262429</v>
       </c>
       <c r="T19">
-        <v>0.006186414017322729</v>
+        <v>0.002635758448262428</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H20">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J20">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N20">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O20">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P20">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q20">
-        <v>1775.856262861853</v>
+        <v>1822.50247617105</v>
       </c>
       <c r="R20">
-        <v>15982.70636575668</v>
+        <v>16402.52228553945</v>
       </c>
       <c r="S20">
-        <v>0.2721860332496447</v>
+        <v>0.2565730999296333</v>
       </c>
       <c r="T20">
-        <v>0.2721860332496448</v>
+        <v>0.2565730999296333</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>198.5982106666667</v>
+        <v>230.32901</v>
       </c>
       <c r="H21">
-        <v>595.794632</v>
+        <v>690.98703</v>
       </c>
       <c r="I21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="J21">
-        <v>0.2803505493821544</v>
+        <v>0.263708034289011</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N21">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O21">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P21">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q21">
-        <v>10.48591932379644</v>
+        <v>29.15205180867</v>
       </c>
       <c r="R21">
-        <v>94.37327391416801</v>
+        <v>262.36846627803</v>
       </c>
       <c r="S21">
-        <v>0.001607180065981487</v>
+        <v>0.004104045069707625</v>
       </c>
       <c r="T21">
-        <v>0.001607180065981488</v>
+        <v>0.004104045069707625</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H22">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I22">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J22">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1807,22 +1807,22 @@
         <v>0.036557</v>
       </c>
       <c r="O22">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P22">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q22">
-        <v>1.748103569099111</v>
+        <v>1.846804386125444</v>
       </c>
       <c r="R22">
-        <v>15.732932121892</v>
+        <v>16.621239475129</v>
       </c>
       <c r="S22">
-        <v>0.0002679323693776038</v>
+        <v>0.0002599943388320405</v>
       </c>
       <c r="T22">
-        <v>0.0002679323693776039</v>
+        <v>0.0002599943388320405</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H23">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I23">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J23">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N23">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O23">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P23">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q23">
-        <v>29.15570116894888</v>
+        <v>12.31928706369211</v>
       </c>
       <c r="R23">
-        <v>262.40131052054</v>
+        <v>110.873583573229</v>
       </c>
       <c r="S23">
-        <v>0.004468703246849187</v>
+        <v>0.001734317353299365</v>
       </c>
       <c r="T23">
-        <v>0.004468703246849189</v>
+        <v>0.001734317353299365</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H24">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I24">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J24">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N24">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O24">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P24">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q24">
-        <v>1282.774580809993</v>
+        <v>1199.198535411395</v>
       </c>
       <c r="R24">
-        <v>11544.97122728994</v>
+        <v>10792.78681870255</v>
       </c>
       <c r="S24">
-        <v>0.1966112528395036</v>
+        <v>0.1688239602878325</v>
       </c>
       <c r="T24">
-        <v>0.1966112528395037</v>
+        <v>0.1688239602878325</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>143.4557186666667</v>
+        <v>151.5554656666667</v>
       </c>
       <c r="H25">
-        <v>430.367156</v>
+        <v>454.666397</v>
       </c>
       <c r="I25">
-        <v>0.2025088212285795</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="J25">
-        <v>0.2025088212285796</v>
+        <v>0.1735187154093718</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N25">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O25">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P25">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q25">
-        <v>7.574414127027111</v>
+        <v>19.181920623033</v>
       </c>
       <c r="R25">
-        <v>68.169727143244</v>
+        <v>172.637285607297</v>
       </c>
       <c r="S25">
-        <v>0.00116093277284906</v>
+        <v>0.0027004434294079</v>
       </c>
       <c r="T25">
-        <v>0.00116093277284906</v>
+        <v>0.0027004434294079</v>
       </c>
     </row>
   </sheetData>
